--- a/data/trans_camb/P22_R3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P22_R3-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.208678658742512</v>
+        <v>-1.182523062447945</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.431942263045163</v>
+        <v>-1.34096313624918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.946701176378258</v>
+        <v>-1.960957869798195</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.576392247252153</v>
+        <v>-2.574712152750172</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.087545872272518</v>
+        <v>-2.952391002330498</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.19807384246176</v>
+        <v>-3.20718128582042</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.67613810258502</v>
+        <v>-1.666375357125561</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.015890957622544</v>
+        <v>-1.972958114411343</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.321603680469356</v>
+        <v>-2.35354024689985</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9627106958625888</v>
+        <v>0.8800652597302184</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6484124506074118</v>
+        <v>0.8272438354579892</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.06891187949907865</v>
+        <v>0.007676026729517098</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.1189773907377207</v>
+        <v>-0.281821775317299</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.7508932432959048</v>
+        <v>-0.7542279324396636</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.152757232095214</v>
+        <v>-1.108163368940736</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.02564917445639127</v>
+        <v>0.03667308045670103</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.3927769290807165</v>
+        <v>-0.3801053894253574</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.9770903972024618</v>
+        <v>-0.8989938652746001</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6045533206945141</v>
+        <v>-0.5883987458077816</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.726360151553203</v>
+        <v>-0.667224600602531</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9356438227314645</v>
+        <v>-0.904134626131555</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7139756542301312</v>
+        <v>-0.7123551038515072</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8412453695216853</v>
+        <v>-0.8410624141021644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8736675109585256</v>
+        <v>-0.8718244749835031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6053651645340407</v>
+        <v>-0.5944272950716176</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7330403471216532</v>
+        <v>-0.7137346014950549</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8408334260982981</v>
+        <v>-0.8594152664403464</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9227709007220815</v>
+        <v>0.8806331817842491</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7027844085056901</v>
+        <v>0.8075720898961521</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1057665135552809</v>
+        <v>0.1564577064561355</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.03021673648402819</v>
+        <v>-0.07790487719120164</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2762500512815066</v>
+        <v>-0.2530546530259237</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4813151383218601</v>
+        <v>-0.461753058372782</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0107780392689056</v>
+        <v>0.02142486589523733</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.16677721582922</v>
+        <v>-0.1612076517171079</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.4888402272986525</v>
+        <v>-0.4430585207805936</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.5499372832415774</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3304240215506977</v>
+        <v>0.330424021550697</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.4455022381063912</v>
@@ -878,7 +878,7 @@
         <v>-0.3848537039505374</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.8832410190588453</v>
+        <v>-0.8832410190588447</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.05730328160546778</v>
+        <v>-0.09811645049711204</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5871048344802879</v>
+        <v>-0.6876716081310892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7974964299512813</v>
+        <v>-0.8879372536213324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.970238947462247</v>
+        <v>-1.885389209053602</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.558170669369282</v>
+        <v>-2.656478209335398</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.322768426635316</v>
+        <v>-3.212562315571128</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4860216820025915</v>
+        <v>-0.5011070447972839</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.22947835643573</v>
+        <v>-1.24637244764142</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.69856185720621</v>
+        <v>-1.714080223748385</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.559723014861135</v>
+        <v>2.465626485327022</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.76272545692678</v>
+        <v>1.712391423700989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.541853168742205</v>
+        <v>1.563930262208873</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9229316794817123</v>
+        <v>0.9470405871407915</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1660044655539064</v>
+        <v>-0.1136765757888905</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.12317547084557</v>
+        <v>-1.093978326801732</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.340110997583858</v>
+        <v>1.385340148525311</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4264985196926818</v>
+        <v>0.3760625114236093</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.02672304805520216</v>
+        <v>-0.04083007086032273</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1930305986556167</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1159804010998638</v>
+        <v>0.1159804010998636</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1164197914887428</v>
@@ -983,7 +983,7 @@
         <v>-0.1158358879644825</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2658438951713587</v>
+        <v>-0.2658438951713585</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03045944414349625</v>
+        <v>-0.01262505060333491</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1739823955241082</v>
+        <v>-0.2000081768294008</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2373377066049601</v>
+        <v>-0.2646411420531746</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4116273770314299</v>
+        <v>-0.4046952628968686</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5614968366823708</v>
+        <v>-0.5645246186032248</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7047218233107658</v>
+        <v>-0.6920261565838697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1299843833610602</v>
+        <v>-0.1352658483677668</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3231048193098264</v>
+        <v>-0.3302932981597021</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4418146700222083</v>
+        <v>-0.4435258270671055</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.124692032785544</v>
+        <v>1.08560610443257</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7579652008894892</v>
+        <v>0.7631010128625531</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.666044210351612</v>
+        <v>0.6682546542748666</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3105527416612985</v>
+        <v>0.3034569051098805</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.02988819146522158</v>
+        <v>-0.01862233380509265</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3616753832406257</v>
+        <v>-0.3636286802816322</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4559675067643578</v>
+        <v>0.4708219998500015</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1522780364652782</v>
+        <v>0.135485919854389</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.002366164274600826</v>
+        <v>-0.009690715601863107</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.963679703574253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-4.311748153423705</v>
+        <v>-4.311748153423707</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.5362205344724467</v>
@@ -1092,7 +1092,7 @@
         <v>1.591149978592689</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.126954396603621</v>
+        <v>-3.126954396603622</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.211275237470975</v>
+        <v>-2.876457459141555</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.305163432810581</v>
+        <v>-2.224810651482425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.688985853984984</v>
+        <v>-8.00364431242784</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.479099707116807</v>
+        <v>-4.399023055611615</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.314655136349052</v>
+        <v>-2.59228046956345</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.397777479312818</v>
+        <v>-5.140492363921816</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.74420095840923</v>
+        <v>-2.639465660068447</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9461199912428701</v>
+        <v>-1.048152330310183</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.480331223289868</v>
+        <v>-5.741857315897376</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.012084879459819</v>
+        <v>6.413312208776449</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.104550151074124</v>
+        <v>6.101177933191343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.6571563309127122</v>
+        <v>-1.200005613477395</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.299814200116032</v>
+        <v>3.791460811740968</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.618777580608966</v>
+        <v>5.266883408236322</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.381524609618949</v>
+        <v>1.359630830890358</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.381780335595856</v>
+        <v>3.265274077094614</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.54090112055041</v>
+        <v>4.632092590464691</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.6498961219511861</v>
+        <v>-0.6114754496109531</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.162262104793496</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.356286888050297</v>
+        <v>-0.3562868880502971</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.0540464696449266</v>
@@ -1197,7 +1197,7 @@
         <v>0.1434601295311952</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2819302321027332</v>
+        <v>-0.2819302321027333</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2245615674701517</v>
+        <v>-0.2219165357965028</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1587600815537573</v>
+        <v>-0.1650314413644276</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5412133790808626</v>
+        <v>-0.554248823352495</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3883482497077963</v>
+        <v>-0.3800365928605909</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2005347406725068</v>
+        <v>-0.2189017824853951</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4389004122758931</v>
+        <v>-0.4165925391269425</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2245122848414481</v>
+        <v>-0.2146657338023908</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0829429302677786</v>
+        <v>-0.08882371002760091</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4308328866898918</v>
+        <v>-0.4515680601780178</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5818536633851928</v>
+        <v>0.6059448763977936</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6138723001118297</v>
+        <v>0.601300111562618</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.06589405512839286</v>
+        <v>-0.09646208598036388</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4325926928313567</v>
+        <v>0.4837140807975177</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.72750596075022</v>
+        <v>0.6751965654842956</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1885802770867895</v>
+        <v>0.1737493896163053</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3520374702449369</v>
+        <v>0.3294711212241873</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4696684014457633</v>
+        <v>0.4690305371250693</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.06806479943563463</v>
+        <v>-0.07085951821586994</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6367617087200947</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.316283728425315</v>
+        <v>-0.3162837284253144</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.879850947388567</v>
@@ -1297,7 +1297,7 @@
         <v>-0.8898063372731289</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.571737160929802</v>
+        <v>-1.571737160929801</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.1284487959255468</v>
@@ -1306,7 +1306,7 @@
         <v>-0.1425060908901397</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.959824673410286</v>
+        <v>-0.9598246734102867</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4174694930232638</v>
+        <v>-0.3817740793253988</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4323167497630708</v>
+        <v>-0.380874754050258</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.333133461644524</v>
+        <v>-1.344833291446496</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.877864330568852</v>
+        <v>-1.880272164578931</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.850644285751275</v>
+        <v>-1.83735964074621</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.36227132990799</v>
+        <v>-2.556466552257046</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.8207187445853463</v>
+        <v>-0.8348315257157999</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8439305821439116</v>
+        <v>-0.830406004657256</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.651354288889588</v>
+        <v>-1.557431019609291</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.703827856593382</v>
+        <v>1.736049799637934</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.647018152338108</v>
+        <v>1.732370699280495</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6690786804943392</v>
+        <v>0.6482828127199091</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1375051132590385</v>
+        <v>0.1023290772127334</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03268252117709504</v>
+        <v>0.09415857689182389</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.7415960196476705</v>
+        <v>-0.7862644766857881</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5777700570400055</v>
+        <v>0.6302855280532805</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.555616653646783</v>
+        <v>0.5253573789554445</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.2701512398217249</v>
+        <v>-0.2817837582665508</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1592363983518617</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.07909376628971307</v>
+        <v>-0.07909376628971289</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2033675764179621</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2056686519798267</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3632892345380177</v>
+        <v>-0.3632892345380176</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.03083809676836381</v>
@@ -1411,7 +1411,7 @@
         <v>-0.03421298416451211</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2304355283832031</v>
+        <v>-0.2304355283832033</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08691334292181777</v>
+        <v>-0.08534541710062092</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1021036706614358</v>
+        <v>-0.08662821294614724</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3013158681922103</v>
+        <v>-0.2991504176296245</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3889385214017849</v>
+        <v>-0.3872702571296239</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3897574426703858</v>
+        <v>-0.3805895962035982</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4843712622709885</v>
+        <v>-0.5065090491313723</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1833494898493225</v>
+        <v>-0.1860777795989024</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1862214445153348</v>
+        <v>-0.1860421311795965</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3600874518099671</v>
+        <v>-0.3466634312865928</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4988871031491218</v>
+        <v>0.4976911504472453</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4605434810093593</v>
+        <v>0.5049956644190912</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1933088433743439</v>
+        <v>0.1887298479044411</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.04033530894413136</v>
+        <v>0.03100340367575913</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.003593122804649415</v>
+        <v>0.02831216854321558</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1869557257428337</v>
+        <v>-0.1905731653696218</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1514941408085423</v>
+        <v>0.1714798683429533</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1444509086806446</v>
+        <v>0.1389552630083699</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.07342944429065994</v>
+        <v>-0.07297671187029885</v>
       </c>
     </row>
     <row r="28">
